--- a/Code/Results/Cases/Case_3_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02501517006084</v>
+        <v>0.5582803828838507</v>
       </c>
       <c r="C2">
-        <v>0.0981301557306864</v>
+        <v>0.1428562087771468</v>
       </c>
       <c r="D2">
-        <v>0.1422968042797095</v>
+        <v>0.211106681591346</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5941346372610283</v>
+        <v>1.313243528569885</v>
       </c>
       <c r="G2">
-        <v>0.3367689417193418</v>
+        <v>0.7057700490176657</v>
       </c>
       <c r="H2">
-        <v>0.3102533252795467</v>
+        <v>0.8195951653174873</v>
       </c>
       <c r="I2">
-        <v>0.3324750859171921</v>
+        <v>0.8304729755197826</v>
       </c>
       <c r="J2">
-        <v>0.0768493641084369</v>
+        <v>0.1984307800647436</v>
       </c>
       <c r="K2">
-        <v>0.8547980391507792</v>
+        <v>0.3037253605132548</v>
       </c>
       <c r="L2">
-        <v>0.2676553797759595</v>
+        <v>0.3525186405535408</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8292974872090113</v>
+        <v>1.669328421296076</v>
       </c>
       <c r="O2">
-        <v>1.310952792183272</v>
+        <v>3.05160912533654</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8928504662143837</v>
+        <v>0.5202156230084256</v>
       </c>
       <c r="C3">
-        <v>0.09595819406481354</v>
+        <v>0.1422031274204514</v>
       </c>
       <c r="D3">
-        <v>0.1296825725177939</v>
+        <v>0.2086189542993537</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5820025104554389</v>
+        <v>1.318409169579084</v>
       </c>
       <c r="G3">
-        <v>0.3316037649862551</v>
+        <v>0.709611369361447</v>
       </c>
       <c r="H3">
-        <v>0.3127647744923934</v>
+        <v>0.8246380857400624</v>
       </c>
       <c r="I3">
-        <v>0.3368339264996436</v>
+        <v>0.8367891079309366</v>
       </c>
       <c r="J3">
-        <v>0.07664758305498864</v>
+        <v>0.1994247939848997</v>
       </c>
       <c r="K3">
-        <v>0.7449854092764809</v>
+        <v>0.2701674456738772</v>
       </c>
       <c r="L3">
-        <v>0.2418199834691706</v>
+        <v>0.3470798108272959</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8602246202386041</v>
+        <v>1.683462263286991</v>
       </c>
       <c r="O3">
-        <v>1.30495225328589</v>
+        <v>3.070083664839942</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8117803034560893</v>
+        <v>0.4969586322916086</v>
       </c>
       <c r="C4">
-        <v>0.09463579017381818</v>
+        <v>0.1418074854017846</v>
       </c>
       <c r="D4">
-        <v>0.1220302203822285</v>
+        <v>0.2071688434358094</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5754456037705751</v>
+        <v>1.322149143680591</v>
       </c>
       <c r="G4">
-        <v>0.329066942785289</v>
+        <v>0.7123320868608758</v>
       </c>
       <c r="H4">
-        <v>0.3147159690704413</v>
+        <v>0.8280130497185851</v>
       </c>
       <c r="I4">
-        <v>0.3400494593504106</v>
+        <v>0.84100441371573</v>
       </c>
       <c r="J4">
-        <v>0.07661592577276366</v>
+        <v>0.2001012941899099</v>
       </c>
       <c r="K4">
-        <v>0.6775016820622568</v>
+        <v>0.2495496501759789</v>
       </c>
       <c r="L4">
-        <v>0.2261372323243762</v>
+        <v>0.3438769631707288</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8800855545908739</v>
+        <v>1.692619463041169</v>
       </c>
       <c r="O4">
-        <v>1.303461711507168</v>
+        <v>3.082770040701774</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7787567699867566</v>
+        <v>0.4875109403382112</v>
       </c>
       <c r="C5">
-        <v>0.09409961884577456</v>
+        <v>0.1416476278259466</v>
       </c>
       <c r="D5">
-        <v>0.118934123492636</v>
+        <v>0.2065974716198795</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5729905172194023</v>
+        <v>1.323816315982519</v>
       </c>
       <c r="G5">
-        <v>0.3281867910950282</v>
+        <v>0.7135319247573193</v>
       </c>
       <c r="H5">
-        <v>0.3156114013263931</v>
+        <v>0.8294585292403411</v>
       </c>
       <c r="I5">
-        <v>0.3414916320240273</v>
+        <v>0.8428070491118973</v>
       </c>
       <c r="J5">
-        <v>0.07662567632565498</v>
+        <v>0.2003936432835687</v>
       </c>
       <c r="K5">
-        <v>0.6499817378455219</v>
+        <v>0.2411450652396354</v>
       </c>
       <c r="L5">
-        <v>0.2197891721601621</v>
+        <v>0.3426063114649764</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8883939899504796</v>
+        <v>1.696471616436241</v>
       </c>
       <c r="O5">
-        <v>1.303387914937176</v>
+        <v>3.088277871013574</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7732738445967868</v>
+        <v>0.4859439774996019</v>
       </c>
       <c r="C6">
-        <v>0.09401074961164824</v>
+        <v>0.1416211670286742</v>
       </c>
       <c r="D6">
-        <v>0.1184213360126165</v>
+        <v>0.2065037802752343</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5725957398521686</v>
+        <v>1.324101797925167</v>
       </c>
       <c r="G6">
-        <v>0.3280497513161862</v>
+        <v>0.7137366623942611</v>
       </c>
       <c r="H6">
-        <v>0.315766071800077</v>
+        <v>0.829702790115654</v>
       </c>
       <c r="I6">
-        <v>0.3417389576563892</v>
+        <v>0.843111503240344</v>
       </c>
       <c r="J6">
-        <v>0.0766286479877003</v>
+        <v>0.2004431953333032</v>
       </c>
       <c r="K6">
-        <v>0.6454107337683297</v>
+        <v>0.2397493477811281</v>
       </c>
       <c r="L6">
-        <v>0.2187375935846347</v>
+        <v>0.3423974118643116</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8897864613018474</v>
+        <v>1.69711854510199</v>
       </c>
       <c r="O6">
-        <v>1.303407375697219</v>
+        <v>3.089212868091593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8113348917177348</v>
+        <v>0.4968310959877158</v>
       </c>
       <c r="C7">
-        <v>0.0946285482896414</v>
+        <v>0.1418053239277555</v>
       </c>
       <c r="D7">
-        <v>0.1219883764006653</v>
+        <v>0.2071610583758456</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5754116250185461</v>
+        <v>1.322171048051345</v>
       </c>
       <c r="G7">
-        <v>0.3290544584352162</v>
+        <v>0.7123478992557253</v>
       </c>
       <c r="H7">
-        <v>0.3147276423874388</v>
+        <v>0.8280322597753695</v>
       </c>
       <c r="I7">
-        <v>0.3400683801458868</v>
+        <v>0.8410283809708154</v>
       </c>
       <c r="J7">
-        <v>0.07661596626045153</v>
+        <v>0.200105169376581</v>
       </c>
       <c r="K7">
-        <v>0.6771306250968507</v>
+        <v>0.249436312966111</v>
       </c>
       <c r="L7">
-        <v>0.2260514502019078</v>
+        <v>0.3438596866463399</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8801967401996009</v>
+        <v>1.692670926438606</v>
       </c>
       <c r="O7">
-        <v>1.303458579010922</v>
+        <v>3.082842952111363</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9794240523101223</v>
+        <v>0.5451322814793969</v>
       </c>
       <c r="C8">
-        <v>0.09737888085533797</v>
+        <v>0.1426299294283382</v>
       </c>
       <c r="D8">
-        <v>0.1379275020176181</v>
+        <v>0.210232919055457</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5897617042282874</v>
+        <v>1.314906826874427</v>
       </c>
       <c r="G8">
-        <v>0.3348526155694174</v>
+        <v>0.7070194128143612</v>
       </c>
       <c r="H8">
-        <v>0.3110327677631943</v>
+        <v>0.8212762030479581</v>
       </c>
       <c r="I8">
-        <v>0.3338637957794575</v>
+        <v>0.8325808446032994</v>
       </c>
       <c r="J8">
-        <v>0.07676031307892828</v>
+        <v>0.1987598002945354</v>
       </c>
       <c r="K8">
-        <v>0.8169435540996801</v>
+        <v>0.292157677133531</v>
       </c>
       <c r="L8">
-        <v>0.2587083422616843</v>
+        <v>0.3506150840746614</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8397776899596252</v>
+        <v>1.674102410677957</v>
       </c>
       <c r="O8">
-        <v>1.308417398516227</v>
+        <v>3.057700621590058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.310016354694312</v>
+        <v>0.6407313225876123</v>
       </c>
       <c r="C9">
-        <v>0.1028660314982801</v>
+        <v>0.1442884939879505</v>
       </c>
       <c r="D9">
-        <v>0.1699715699893574</v>
+        <v>0.2168664633058341</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6253345724044834</v>
+        <v>1.305161904689569</v>
       </c>
       <c r="G9">
-        <v>0.3515389760855214</v>
+        <v>0.6994412456932722</v>
       </c>
       <c r="H9">
-        <v>0.3071551203682787</v>
+        <v>0.8102337162254827</v>
       </c>
       <c r="I9">
-        <v>0.3261514572984616</v>
+        <v>0.8186871528787627</v>
       </c>
       <c r="J9">
-        <v>0.07780081280493434</v>
+        <v>0.1966452756247854</v>
       </c>
       <c r="K9">
-        <v>1.090911186323865</v>
+        <v>0.3758065540937139</v>
       </c>
       <c r="L9">
-        <v>0.3243023115225157</v>
+        <v>0.364939350629399</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7676270725683132</v>
+        <v>1.641485927270598</v>
       </c>
       <c r="O9">
-        <v>1.336398834377064</v>
+        <v>3.019038240046882</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.554014852362201</v>
+        <v>0.711469683406051</v>
       </c>
       <c r="C10">
-        <v>0.1069625778249943</v>
+        <v>0.145531201960317</v>
       </c>
       <c r="D10">
-        <v>0.1940705361783444</v>
+        <v>0.2221067969359467</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6565152951600624</v>
+        <v>1.300735173245435</v>
       </c>
       <c r="G10">
-        <v>0.367447986499954</v>
+        <v>0.6956211646997374</v>
       </c>
       <c r="H10">
-        <v>0.3065361428483229</v>
+        <v>0.8034598988853929</v>
       </c>
       <c r="I10">
-        <v>0.323456689380496</v>
+        <v>0.8101037470612944</v>
       </c>
       <c r="J10">
-        <v>0.0790642135791586</v>
+        <v>0.1954093165990116</v>
       </c>
       <c r="K10">
-        <v>1.292468617369849</v>
+        <v>0.4371596489982323</v>
       </c>
       <c r="L10">
-        <v>0.3736257118544728</v>
+        <v>0.3761118678919502</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7192333698352584</v>
+        <v>1.619830774904447</v>
       </c>
       <c r="O10">
-        <v>1.369324003854956</v>
+        <v>2.997103035094582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.665381559304109</v>
+        <v>0.7437523123469134</v>
       </c>
       <c r="C11">
-        <v>0.1088423260542939</v>
+        <v>0.1461015537549955</v>
       </c>
       <c r="D11">
-        <v>0.2051723362132805</v>
+        <v>0.2245693615567035</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6719154626934696</v>
+        <v>1.299312580731289</v>
       </c>
       <c r="G11">
-        <v>0.3755730087574989</v>
+        <v>0.6942622670366774</v>
       </c>
       <c r="H11">
-        <v>0.3067799584013926</v>
+        <v>0.8006678696037426</v>
       </c>
       <c r="I11">
-        <v>0.3229353556810679</v>
+        <v>0.8065506763706232</v>
       </c>
       <c r="J11">
-        <v>0.07975593665781489</v>
+        <v>0.1949156504727014</v>
       </c>
       <c r="K11">
-        <v>1.384316877442217</v>
+        <v>0.4650430650433179</v>
       </c>
       <c r="L11">
-        <v>0.3963531018573008</v>
+        <v>0.3813337159327688</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6982850821023021</v>
+        <v>1.610479185164891</v>
       </c>
       <c r="O11">
-        <v>1.387276066510594</v>
+        <v>2.988525479304343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.707616987472278</v>
+        <v>0.7559910210551664</v>
       </c>
       <c r="C12">
-        <v>0.1095566402585533</v>
+        <v>0.1463182331963324</v>
       </c>
       <c r="D12">
-        <v>0.2093978017329192</v>
+        <v>0.2255130893105388</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6779324153662571</v>
+        <v>1.298858693057454</v>
       </c>
       <c r="G12">
-        <v>0.3787857773911867</v>
+        <v>0.6938021186238075</v>
       </c>
       <c r="H12">
-        <v>0.3069514679706487</v>
+        <v>0.7996521212965462</v>
       </c>
       <c r="I12">
-        <v>0.3228444742696048</v>
+        <v>0.8052557011732837</v>
       </c>
       <c r="J12">
-        <v>0.08003545125345823</v>
+        <v>0.1947385438911517</v>
       </c>
       <c r="K12">
-        <v>1.419128290665384</v>
+        <v>0.4755974213981631</v>
       </c>
       <c r="L12">
-        <v>0.4050047641399033</v>
+        <v>0.3833309741720257</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6905116675618963</v>
+        <v>1.60700972593045</v>
       </c>
       <c r="O12">
-        <v>1.394527059954612</v>
+        <v>2.985478521072423</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.698517852198847</v>
+        <v>0.753354588667662</v>
       </c>
       <c r="C13">
-        <v>0.1094026862122348</v>
+        <v>0.146271536681077</v>
       </c>
       <c r="D13">
-        <v>0.2084867938480386</v>
+        <v>0.2253093439366296</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6766281465038801</v>
+        <v>1.298952676640305</v>
       </c>
       <c r="G13">
-        <v>0.3780876642361903</v>
+        <v>0.6938987994608681</v>
       </c>
       <c r="H13">
-        <v>0.3069109486728507</v>
+        <v>0.7998690350429882</v>
       </c>
       <c r="I13">
-        <v>0.3228592227599663</v>
+        <v>0.8055323523854412</v>
       </c>
       <c r="J13">
-        <v>0.07997445880499399</v>
+        <v>0.1947762500248018</v>
       </c>
       <c r="K13">
-        <v>1.411629547548443</v>
+        <v>0.4733245625120901</v>
       </c>
       <c r="L13">
-        <v>0.4031393998602653</v>
+        <v>0.3828999487239599</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.692178631257331</v>
+        <v>1.607753743939433</v>
       </c>
       <c r="O13">
-        <v>1.392944867236679</v>
+        <v>2.986125794973731</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.668854965773562</v>
+        <v>0.7447589232432108</v>
       </c>
       <c r="C14">
-        <v>0.1089010421331906</v>
+        <v>0.1461193662235232</v>
       </c>
       <c r="D14">
-        <v>0.2055195291819558</v>
+        <v>0.224646778616119</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6724067068589648</v>
+        <v>1.299273540341616</v>
       </c>
       <c r="G14">
-        <v>0.375834550268209</v>
+        <v>0.6942233196198515</v>
       </c>
       <c r="H14">
-        <v>0.3067924601464256</v>
+        <v>0.8005834714886788</v>
       </c>
       <c r="I14">
-        <v>0.3229257127328538</v>
+        <v>0.8064431263123524</v>
       </c>
       <c r="J14">
-        <v>0.0797785758435019</v>
+        <v>0.1949008828748511</v>
       </c>
       <c r="K14">
-        <v>1.38718017706671</v>
+        <v>0.4659114721937101</v>
       </c>
       <c r="L14">
-        <v>0.3970639502061175</v>
+        <v>0.3814976346805281</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6976423320203686</v>
+        <v>1.610192312183834</v>
       </c>
       <c r="O14">
-        <v>1.387863382958329</v>
+        <v>2.98827077389106</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.650694138922489</v>
+        <v>0.7394956238690327</v>
       </c>
       <c r="C15">
-        <v>0.1085941005966546</v>
+        <v>0.1460262477978986</v>
       </c>
       <c r="D15">
-        <v>0.2037048325800725</v>
+        <v>0.2242423945533858</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6698453956978341</v>
+        <v>1.299481118703795</v>
       </c>
       <c r="G15">
-        <v>0.3744724186501713</v>
+        <v>0.6944291854911313</v>
       </c>
       <c r="H15">
-        <v>0.3067303055747459</v>
+        <v>0.8010264906976374</v>
       </c>
       <c r="I15">
-        <v>0.3229804738142406</v>
+        <v>0.8070075759075195</v>
       </c>
       <c r="J15">
-        <v>0.07966090347393617</v>
+        <v>0.1949785039691463</v>
       </c>
       <c r="K15">
-        <v>1.372208435463563</v>
+        <v>0.4613701353601982</v>
       </c>
       <c r="L15">
-        <v>0.3933485708044486</v>
+        <v>0.3806412572591995</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7010099262974201</v>
+        <v>1.611695353146846</v>
       </c>
       <c r="O15">
-        <v>1.384810586088719</v>
+        <v>2.989610826482419</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.546745071787086</v>
+        <v>0.7093619421426922</v>
       </c>
       <c r="C16">
-        <v>0.1068400716622833</v>
+        <v>0.1454940273756833</v>
       </c>
       <c r="D16">
-        <v>0.1933479285216606</v>
+        <v>0.2219474369600078</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6555342010649383</v>
+        <v>1.300840022277498</v>
       </c>
       <c r="G16">
-        <v>0.3669355651142396</v>
+        <v>0.6957175919569494</v>
       </c>
       <c r="H16">
-        <v>0.3065310869713613</v>
+        <v>0.8036481810606659</v>
       </c>
       <c r="I16">
-        <v>0.3235053771169163</v>
+        <v>0.8103430179133468</v>
       </c>
       <c r="J16">
-        <v>0.07902142534959822</v>
+        <v>0.1954429564640527</v>
       </c>
       <c r="K16">
-        <v>1.28646995373532</v>
+        <v>0.4353368116961747</v>
       </c>
       <c r="L16">
-        <v>0.3721465607256107</v>
+        <v>0.3757733969856929</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7206243445667226</v>
+        <v>1.620451970397976</v>
       </c>
       <c r="O16">
-        <v>1.368212770015134</v>
+        <v>2.997691764846181</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.483077499218638</v>
+        <v>0.6909017527742094</v>
       </c>
       <c r="C17">
-        <v>0.1057682949076693</v>
+        <v>0.1451687999724314</v>
       </c>
       <c r="D17">
-        <v>0.1870309325826724</v>
+        <v>0.2205596358849249</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6470733900654508</v>
+        <v>1.301824938627981</v>
       </c>
       <c r="G17">
-        <v>0.3625451444633399</v>
+        <v>0.6966049948358091</v>
       </c>
       <c r="H17">
-        <v>0.3065459588213315</v>
+        <v>0.8053305686444503</v>
       </c>
       <c r="I17">
-        <v>0.3240114668425242</v>
+        <v>0.8124792055315844</v>
       </c>
       <c r="J17">
-        <v>0.07865961327824067</v>
+        <v>0.195745427983649</v>
       </c>
       <c r="K17">
-        <v>1.23391811136554</v>
+        <v>0.4193589547221848</v>
       </c>
       <c r="L17">
-        <v>0.3592165695776686</v>
+        <v>0.3728226946557669</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7329343637685497</v>
+        <v>1.625951766293021</v>
       </c>
       <c r="O17">
-        <v>1.358809848803645</v>
+        <v>3.003007766462929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.446491839008132</v>
+        <v>0.6802937252390961</v>
       </c>
       <c r="C18">
-        <v>0.105153352252934</v>
+        <v>0.144982213422864</v>
       </c>
       <c r="D18">
-        <v>0.183410560612657</v>
+        <v>0.2197688246391181</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6423207464035627</v>
+        <v>1.302447089630235</v>
       </c>
       <c r="G18">
-        <v>0.3601029428988696</v>
+        <v>0.6971510698779682</v>
       </c>
       <c r="H18">
-        <v>0.3066037359787543</v>
+        <v>0.80632547956953</v>
       </c>
       <c r="I18">
-        <v>0.3243685410362716</v>
+        <v>0.8137409785010874</v>
       </c>
       <c r="J18">
-        <v>0.07846247356531322</v>
+        <v>0.1959258581036245</v>
       </c>
       <c r="K18">
-        <v>1.203706138438264</v>
+        <v>0.4101664689682138</v>
       </c>
       <c r="L18">
-        <v>0.3518066423400654</v>
+        <v>0.3711386623849364</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7401147492020179</v>
+        <v>1.629162115766022</v>
       </c>
       <c r="O18">
-        <v>1.353679894689805</v>
+        <v>3.006197263441337</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.434110150701599</v>
+        <v>0.6767037371143942</v>
       </c>
       <c r="C19">
-        <v>0.1049453986939781</v>
+        <v>0.144919120874043</v>
       </c>
       <c r="D19">
-        <v>0.1821869539706853</v>
+        <v>0.2195023464763608</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6407308189456558</v>
+        <v>1.302667303519186</v>
       </c>
       <c r="G19">
-        <v>0.3592900737433595</v>
+        <v>0.6973420882680514</v>
       </c>
       <c r="H19">
-        <v>0.3066316450956634</v>
+        <v>0.8066670214458043</v>
       </c>
       <c r="I19">
-        <v>0.3245006184280221</v>
+        <v>0.8141738789301378</v>
       </c>
       <c r="J19">
-        <v>0.078397586469098</v>
+        <v>0.1959880583866358</v>
       </c>
       <c r="K19">
-        <v>1.19347914212824</v>
+        <v>0.4070536523214514</v>
       </c>
       <c r="L19">
-        <v>0.3493023097820327</v>
+        <v>0.3705707394920381</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.74256290193944</v>
+        <v>1.630257160458001</v>
       </c>
       <c r="O19">
-        <v>1.351990041827946</v>
+        <v>3.007299829888794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.489851406649393</v>
+        <v>0.6928658651688409</v>
       </c>
       <c r="C20">
-        <v>0.1058822294397785</v>
+        <v>0.1452033719368515</v>
       </c>
       <c r="D20">
-        <v>0.1877020321307583</v>
+        <v>0.2207066030309903</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6479622073721529</v>
+        <v>1.301714334078156</v>
       </c>
       <c r="G20">
-        <v>0.3630038578604839</v>
+        <v>0.6965068384821862</v>
       </c>
       <c r="H20">
-        <v>0.3065392556051094</v>
+        <v>0.8051486563621637</v>
       </c>
       <c r="I20">
-        <v>0.3239507265822645</v>
+        <v>0.8122483799984792</v>
       </c>
       <c r="J20">
-        <v>0.07869698864224262</v>
+        <v>0.1957125613483726</v>
       </c>
       <c r="K20">
-        <v>1.239510794776407</v>
+        <v>0.4210600829193254</v>
       </c>
       <c r="L20">
-        <v>0.3605901629958055</v>
+        <v>0.3731354440449905</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.731613550923381</v>
+        <v>1.625361438291712</v>
       </c>
       <c r="O20">
-        <v>1.359781818433319</v>
+        <v>3.002428222553277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.677565874495741</v>
+        <v>0.7472833062831796</v>
       </c>
       <c r="C21">
-        <v>0.1090483180855344</v>
+        <v>0.1461640435867864</v>
       </c>
       <c r="D21">
-        <v>0.2063904924469284</v>
+        <v>0.2248410868108834</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6736415328482863</v>
+        <v>1.299176994490807</v>
       </c>
       <c r="G21">
-        <v>0.3764925849184522</v>
+        <v>0.6941265231520219</v>
       </c>
       <c r="H21">
-        <v>0.3068250841710949</v>
+        <v>0.8003724976784525</v>
       </c>
       <c r="I21">
-        <v>0.3229032486092969</v>
+        <v>0.8061742399664809</v>
       </c>
       <c r="J21">
-        <v>0.07983562828775703</v>
+        <v>0.194864008509871</v>
       </c>
       <c r="K21">
-        <v>1.394360659400206</v>
+        <v>0.4680890038213761</v>
       </c>
       <c r="L21">
-        <v>0.3988471980591584</v>
+        <v>0.3819089908899258</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.696033139988117</v>
+        <v>1.609474097627704</v>
       </c>
       <c r="O21">
-        <v>1.389343437306849</v>
+        <v>2.987635283873772</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.80062204628328</v>
+        <v>0.7829293096032472</v>
       </c>
       <c r="C22">
-        <v>0.1111321658581161</v>
+        <v>0.1467959643642729</v>
       </c>
       <c r="D22">
-        <v>0.2187302712510473</v>
+        <v>0.2276084882644795</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.691509439211913</v>
+        <v>1.298012987977373</v>
       </c>
       <c r="G22">
-        <v>0.3861051500102093</v>
+        <v>0.6928881264698816</v>
       </c>
       <c r="H22">
-        <v>0.3074752564536709</v>
+        <v>0.7974930464461067</v>
       </c>
       <c r="I22">
-        <v>0.3228422661859476</v>
+        <v>0.8024987378224715</v>
       </c>
       <c r="J22">
-        <v>0.08068260710700415</v>
+        <v>0.1943667379870533</v>
       </c>
       <c r="K22">
-        <v>1.495745528194874</v>
+        <v>0.4987986416483636</v>
       </c>
       <c r="L22">
-        <v>0.4241162077963025</v>
+        <v>0.387758668559627</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6737104756173693</v>
+        <v>1.599509204345175</v>
       </c>
       <c r="O22">
-        <v>1.411316468876521</v>
+        <v>2.979139725856783</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.734906966015046</v>
+        <v>0.7638972439718543</v>
       </c>
       <c r="C23">
-        <v>0.1100185808182701</v>
+        <v>0.1464583324610658</v>
       </c>
       <c r="D23">
-        <v>0.2121322864812072</v>
+        <v>0.226125537692937</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6818701388635873</v>
+        <v>1.298589075127566</v>
       </c>
       <c r="G23">
-        <v>0.3808989571881938</v>
+        <v>0.6935200663319279</v>
       </c>
       <c r="H23">
-        <v>0.3070845955155477</v>
+        <v>0.799007744608204</v>
       </c>
       <c r="I23">
-        <v>0.3228159530954109</v>
+        <v>0.8044335134989176</v>
       </c>
       <c r="J23">
-        <v>0.08022089301008251</v>
+        <v>0.194626905975877</v>
       </c>
       <c r="K23">
-        <v>1.441615243865215</v>
+        <v>0.4824109809256925</v>
       </c>
       <c r="L23">
-        <v>0.4106040934454427</v>
+        <v>0.384626065624488</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6855372586956641</v>
+        <v>1.604789382631377</v>
       </c>
       <c r="O23">
-        <v>1.399337604059355</v>
+        <v>2.983566771734559</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.486788868792217</v>
+        <v>0.6919778743715028</v>
       </c>
       <c r="C24">
-        <v>0.1058307157998115</v>
+        <v>0.1451877407322186</v>
       </c>
       <c r="D24">
-        <v>0.1873985927718849</v>
+        <v>0.2206401372036737</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6475600262719468</v>
+        <v>1.301764164228757</v>
       </c>
       <c r="G24">
-        <v>0.3627962190266132</v>
+        <v>0.696551103155798</v>
       </c>
       <c r="H24">
-        <v>0.3065421330698825</v>
+        <v>0.8052308126653926</v>
       </c>
       <c r="I24">
-        <v>0.3239779817079409</v>
+        <v>0.8123526314002518</v>
       </c>
       <c r="J24">
-        <v>0.07868005743612727</v>
+        <v>0.1957273999961195</v>
       </c>
       <c r="K24">
-        <v>1.236982340743879</v>
+        <v>0.4202910233763077</v>
       </c>
       <c r="L24">
-        <v>0.3599690878707378</v>
+        <v>0.3729940115141659</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7322103694369453</v>
+        <v>1.625628174680607</v>
       </c>
       <c r="O24">
-        <v>1.359341533457069</v>
+        <v>3.002689819251984</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.22042659311137</v>
+        <v>0.6147786035882064</v>
       </c>
       <c r="C25">
-        <v>0.1013707917070761</v>
+        <v>0.143835482863615</v>
       </c>
       <c r="D25">
-        <v>0.1612108606770732</v>
+        <v>0.2150071627604859</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6148639270024887</v>
+        <v>1.307317480133392</v>
       </c>
       <c r="G25">
-        <v>0.3464147963262292</v>
+        <v>0.7011842528763168</v>
       </c>
       <c r="H25">
-        <v>0.3078258678862653</v>
+        <v>0.8129854234720071</v>
       </c>
       <c r="I25">
-        <v>0.3277352894243251</v>
+        <v>0.8221601925894255</v>
       </c>
       <c r="J25">
-        <v>0.07743450921849515</v>
+        <v>0.1971614169561704</v>
       </c>
       <c r="K25">
-        <v>1.016777975149608</v>
+        <v>0.3531936582747051</v>
       </c>
       <c r="L25">
-        <v>0.3063726093364068</v>
+        <v>0.3609497940008026</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7863563858664406</v>
+        <v>1.649903773936622</v>
       </c>
       <c r="O25">
-        <v>1.326750633178548</v>
+        <v>3.028359974210943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5582803828838507</v>
+        <v>1.025015170060669</v>
       </c>
       <c r="C2">
-        <v>0.1428562087771468</v>
+        <v>0.09813015573030981</v>
       </c>
       <c r="D2">
-        <v>0.211106681591346</v>
+        <v>0.1422968042796953</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.313243528569885</v>
+        <v>0.5941346372610354</v>
       </c>
       <c r="G2">
-        <v>0.7057700490176657</v>
+        <v>0.3367689417193986</v>
       </c>
       <c r="H2">
-        <v>0.8195951653174873</v>
+        <v>0.3102533252796533</v>
       </c>
       <c r="I2">
-        <v>0.8304729755197826</v>
+        <v>0.332475085917185</v>
       </c>
       <c r="J2">
-        <v>0.1984307800647436</v>
+        <v>0.07684936410847953</v>
       </c>
       <c r="K2">
-        <v>0.3037253605132548</v>
+        <v>0.8547980391507792</v>
       </c>
       <c r="L2">
-        <v>0.3525186405535408</v>
+        <v>0.2676553797760448</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.669328421296076</v>
+        <v>0.829297487209061</v>
       </c>
       <c r="O2">
-        <v>3.05160912533654</v>
+        <v>1.310952792183272</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5202156230084256</v>
+        <v>0.8928504662143837</v>
       </c>
       <c r="C3">
-        <v>0.1422031274204514</v>
+        <v>0.09595819406521144</v>
       </c>
       <c r="D3">
-        <v>0.2086189542993537</v>
+        <v>0.1296825725177797</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.318409169579084</v>
+        <v>0.5820025104554531</v>
       </c>
       <c r="G3">
-        <v>0.709611369361447</v>
+        <v>0.3316037649862196</v>
       </c>
       <c r="H3">
-        <v>0.8246380857400624</v>
+        <v>0.3127647744923934</v>
       </c>
       <c r="I3">
-        <v>0.8367891079309366</v>
+        <v>0.3368339264996365</v>
       </c>
       <c r="J3">
-        <v>0.1994247939848997</v>
+        <v>0.07664758305496733</v>
       </c>
       <c r="K3">
-        <v>0.2701674456738772</v>
+        <v>0.7449854092764667</v>
       </c>
       <c r="L3">
-        <v>0.3470798108272959</v>
+        <v>0.2418199834691706</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.683462263286991</v>
+        <v>0.8602246202386681</v>
       </c>
       <c r="O3">
-        <v>3.070083664839942</v>
+        <v>1.304952253285933</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4969586322916086</v>
+        <v>0.811780303456004</v>
       </c>
       <c r="C4">
-        <v>0.1418074854017846</v>
+        <v>0.09463579017380397</v>
       </c>
       <c r="D4">
-        <v>0.2071688434358094</v>
+        <v>0.1220302203822285</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.322149143680591</v>
+        <v>0.5754456037705538</v>
       </c>
       <c r="G4">
-        <v>0.7123320868608758</v>
+        <v>0.329066942785289</v>
       </c>
       <c r="H4">
-        <v>0.8280130497185851</v>
+        <v>0.3147159690704413</v>
       </c>
       <c r="I4">
-        <v>0.84100441371573</v>
+        <v>0.3400494593504071</v>
       </c>
       <c r="J4">
-        <v>0.2001012941899099</v>
+        <v>0.07661592577272458</v>
       </c>
       <c r="K4">
-        <v>0.2495496501759789</v>
+        <v>0.6775016820622568</v>
       </c>
       <c r="L4">
-        <v>0.3438769631707288</v>
+        <v>0.2261372323243052</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.692619463041169</v>
+        <v>0.8800855545908099</v>
       </c>
       <c r="O4">
-        <v>3.082770040701774</v>
+        <v>1.303461711507182</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4875109403382112</v>
+        <v>0.7787567699867282</v>
       </c>
       <c r="C5">
-        <v>0.1416476278259466</v>
+        <v>0.09409961884553297</v>
       </c>
       <c r="D5">
-        <v>0.2065974716198795</v>
+        <v>0.1189341234923802</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.323816315982519</v>
+        <v>0.5729905172194094</v>
       </c>
       <c r="G5">
-        <v>0.7135319247573193</v>
+        <v>0.3281867910951348</v>
       </c>
       <c r="H5">
-        <v>0.8294585292403411</v>
+        <v>0.3156114013264002</v>
       </c>
       <c r="I5">
-        <v>0.8428070491118973</v>
+        <v>0.3414916320240309</v>
       </c>
       <c r="J5">
-        <v>0.2003936432835687</v>
+        <v>0.07662567632552708</v>
       </c>
       <c r="K5">
-        <v>0.2411450652396354</v>
+        <v>0.6499817378457067</v>
       </c>
       <c r="L5">
-        <v>0.3426063114649764</v>
+        <v>0.2197891721601479</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.696471616436241</v>
+        <v>0.8883939899504725</v>
       </c>
       <c r="O5">
-        <v>3.088277871013574</v>
+        <v>1.303387914937232</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4859439774996019</v>
+        <v>0.7732738445967016</v>
       </c>
       <c r="C6">
-        <v>0.1416211670286742</v>
+        <v>0.0940107496115985</v>
       </c>
       <c r="D6">
-        <v>0.2065037802752343</v>
+        <v>0.1184213360126094</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.324101797925167</v>
+        <v>0.5725957398521899</v>
       </c>
       <c r="G6">
-        <v>0.7137366623942611</v>
+        <v>0.3280497513161791</v>
       </c>
       <c r="H6">
-        <v>0.829702790115654</v>
+        <v>0.315766071800077</v>
       </c>
       <c r="I6">
-        <v>0.843111503240344</v>
+        <v>0.3417389576564069</v>
       </c>
       <c r="J6">
-        <v>0.2004431953333032</v>
+        <v>0.07662864798770741</v>
       </c>
       <c r="K6">
-        <v>0.2397493477811281</v>
+        <v>0.6454107337683297</v>
       </c>
       <c r="L6">
-        <v>0.3423974118643116</v>
+        <v>0.2187375935846347</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.69711854510199</v>
+        <v>0.889786461301842</v>
       </c>
       <c r="O6">
-        <v>3.089212868091593</v>
+        <v>1.303407375697205</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4968310959877158</v>
+        <v>0.8113348917177063</v>
       </c>
       <c r="C7">
-        <v>0.1418053239277555</v>
+        <v>0.09462854829012457</v>
       </c>
       <c r="D7">
-        <v>0.2071610583758456</v>
+        <v>0.1219883764005374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.322171048051345</v>
+        <v>0.5754116250185248</v>
       </c>
       <c r="G7">
-        <v>0.7123478992557253</v>
+        <v>0.3290544584352801</v>
       </c>
       <c r="H7">
-        <v>0.8280322597753695</v>
+        <v>0.3147276423873251</v>
       </c>
       <c r="I7">
-        <v>0.8410283809708154</v>
+        <v>0.340068380145869</v>
       </c>
       <c r="J7">
-        <v>0.200105169376581</v>
+        <v>0.07661596626035916</v>
       </c>
       <c r="K7">
-        <v>0.249436312966111</v>
+        <v>0.6771306250967797</v>
       </c>
       <c r="L7">
-        <v>0.3438596866463399</v>
+        <v>0.2260514502019362</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.692670926438606</v>
+        <v>0.8801967401995938</v>
       </c>
       <c r="O7">
-        <v>3.082842952111363</v>
+        <v>1.303458579010865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5451322814793969</v>
+        <v>0.9794240523100939</v>
       </c>
       <c r="C8">
-        <v>0.1426299294283382</v>
+        <v>0.09737888085557245</v>
       </c>
       <c r="D8">
-        <v>0.210232919055457</v>
+        <v>0.1379275020174759</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.314906826874427</v>
+        <v>0.5897617042282945</v>
       </c>
       <c r="G8">
-        <v>0.7070194128143612</v>
+        <v>0.3348526155694245</v>
       </c>
       <c r="H8">
-        <v>0.8212762030479581</v>
+        <v>0.311032767763308</v>
       </c>
       <c r="I8">
-        <v>0.8325808446032994</v>
+        <v>0.333863795779461</v>
       </c>
       <c r="J8">
-        <v>0.1987598002945354</v>
+        <v>0.07676031307885722</v>
       </c>
       <c r="K8">
-        <v>0.292157677133531</v>
+        <v>0.8169435540996233</v>
       </c>
       <c r="L8">
-        <v>0.3506150840746614</v>
+        <v>0.2587083422616132</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.674102410677957</v>
+        <v>0.8397776899596323</v>
       </c>
       <c r="O8">
-        <v>3.057700621590058</v>
+        <v>1.308417398516198</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6407313225876123</v>
+        <v>1.310016354694284</v>
       </c>
       <c r="C9">
-        <v>0.1442884939879505</v>
+        <v>0.1028660314979675</v>
       </c>
       <c r="D9">
-        <v>0.2168664633058341</v>
+        <v>0.1699715699893574</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.305161904689569</v>
+        <v>0.6253345724044621</v>
       </c>
       <c r="G9">
-        <v>0.6994412456932722</v>
+        <v>0.3515389760855783</v>
       </c>
       <c r="H9">
-        <v>0.8102337162254827</v>
+        <v>0.3071551203682787</v>
       </c>
       <c r="I9">
-        <v>0.8186871528787627</v>
+        <v>0.3261514572984687</v>
       </c>
       <c r="J9">
-        <v>0.1966452756247854</v>
+        <v>0.0778008128049521</v>
       </c>
       <c r="K9">
-        <v>0.3758065540937139</v>
+        <v>1.090911186323865</v>
       </c>
       <c r="L9">
-        <v>0.364939350629399</v>
+        <v>0.3243023115225725</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.641485927270598</v>
+        <v>0.7676270725683061</v>
       </c>
       <c r="O9">
-        <v>3.019038240046882</v>
+        <v>1.336398834377064</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.711469683406051</v>
+        <v>1.554014852362229</v>
       </c>
       <c r="C10">
-        <v>0.145531201960317</v>
+        <v>0.1069625778252217</v>
       </c>
       <c r="D10">
-        <v>0.2221067969359467</v>
+        <v>0.1940705361783586</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.300735173245435</v>
+        <v>0.6565152951600766</v>
       </c>
       <c r="G10">
-        <v>0.6956211646997374</v>
+        <v>0.3674479864999967</v>
       </c>
       <c r="H10">
-        <v>0.8034598988853929</v>
+        <v>0.3065361428483513</v>
       </c>
       <c r="I10">
-        <v>0.8101037470612944</v>
+        <v>0.323456689380496</v>
       </c>
       <c r="J10">
-        <v>0.1954093165990116</v>
+        <v>0.07906421357923321</v>
       </c>
       <c r="K10">
-        <v>0.4371596489982323</v>
+        <v>1.292468617369849</v>
       </c>
       <c r="L10">
-        <v>0.3761118678919502</v>
+        <v>0.3736257118544017</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.619830774904447</v>
+        <v>0.7192333698353224</v>
       </c>
       <c r="O10">
-        <v>2.997103035094582</v>
+        <v>1.369324003854956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7437523123469134</v>
+        <v>1.665381559304024</v>
       </c>
       <c r="C11">
-        <v>0.1461015537549955</v>
+        <v>0.1088423260542228</v>
       </c>
       <c r="D11">
-        <v>0.2245693615567035</v>
+        <v>0.2051723362132662</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.299312580731289</v>
+        <v>0.6719154626934767</v>
       </c>
       <c r="G11">
-        <v>0.6942622670366774</v>
+        <v>0.3755730087574989</v>
       </c>
       <c r="H11">
-        <v>0.8006678696037426</v>
+        <v>0.3067799584013926</v>
       </c>
       <c r="I11">
-        <v>0.8065506763706232</v>
+        <v>0.3229353556810644</v>
       </c>
       <c r="J11">
-        <v>0.1949156504727014</v>
+        <v>0.07975593665774383</v>
       </c>
       <c r="K11">
-        <v>0.4650430650433179</v>
+        <v>1.38431687744233</v>
       </c>
       <c r="L11">
-        <v>0.3813337159327688</v>
+        <v>0.3963531018573576</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.610479185164891</v>
+        <v>0.698285082102295</v>
       </c>
       <c r="O11">
-        <v>2.988525479304343</v>
+        <v>1.387276066510708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7559910210551664</v>
+        <v>1.70761698747225</v>
       </c>
       <c r="C12">
-        <v>0.1463182331963324</v>
+        <v>0.1095566402585604</v>
       </c>
       <c r="D12">
-        <v>0.2255130893105388</v>
+        <v>0.2093978017330471</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.298858693057454</v>
+        <v>0.6779324153662571</v>
       </c>
       <c r="G12">
-        <v>0.6938021186238075</v>
+        <v>0.3787857773912435</v>
       </c>
       <c r="H12">
-        <v>0.7996521212965462</v>
+        <v>0.306951467970535</v>
       </c>
       <c r="I12">
-        <v>0.8052557011732837</v>
+        <v>0.3228444742696084</v>
       </c>
       <c r="J12">
-        <v>0.1947385438911517</v>
+        <v>0.08003545125360745</v>
       </c>
       <c r="K12">
-        <v>0.4755974213981631</v>
+        <v>1.419128290665583</v>
       </c>
       <c r="L12">
-        <v>0.3833309741720257</v>
+        <v>0.405004764139818</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.60700972593045</v>
+        <v>0.6905116675618963</v>
       </c>
       <c r="O12">
-        <v>2.985478521072423</v>
+        <v>1.394527059954669</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.753354588667662</v>
+        <v>1.698517852198933</v>
       </c>
       <c r="C13">
-        <v>0.146271536681077</v>
+        <v>0.1094026862123201</v>
       </c>
       <c r="D13">
-        <v>0.2253093439366296</v>
+        <v>0.2084867938481239</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.298952676640305</v>
+        <v>0.6766281465038801</v>
       </c>
       <c r="G13">
-        <v>0.6938987994608681</v>
+        <v>0.3780876642362045</v>
       </c>
       <c r="H13">
-        <v>0.7998690350429882</v>
+        <v>0.3069109486728507</v>
       </c>
       <c r="I13">
-        <v>0.8055323523854412</v>
+        <v>0.322859222759984</v>
       </c>
       <c r="J13">
-        <v>0.1947762500248018</v>
+        <v>0.07997445880498333</v>
       </c>
       <c r="K13">
-        <v>0.4733245625120901</v>
+        <v>1.411629547548472</v>
       </c>
       <c r="L13">
-        <v>0.3828999487239599</v>
+        <v>0.4031393998604216</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.607753743939433</v>
+        <v>0.6921786312573239</v>
       </c>
       <c r="O13">
-        <v>2.986125794973731</v>
+        <v>1.392944867236764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7447589232432108</v>
+        <v>1.668854965773647</v>
       </c>
       <c r="C14">
-        <v>0.1461193662235232</v>
+        <v>0.1089010421328851</v>
       </c>
       <c r="D14">
-        <v>0.224646778616119</v>
+        <v>0.2055195291817995</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.299273540341616</v>
+        <v>0.6724067068589434</v>
       </c>
       <c r="G14">
-        <v>0.6942233196198515</v>
+        <v>0.375834550268209</v>
       </c>
       <c r="H14">
-        <v>0.8005834714886788</v>
+        <v>0.3067924601464256</v>
       </c>
       <c r="I14">
-        <v>0.8064431263123524</v>
+        <v>0.3229257127328715</v>
       </c>
       <c r="J14">
-        <v>0.1949008828748511</v>
+        <v>0.07977857584355874</v>
       </c>
       <c r="K14">
-        <v>0.4659114721937101</v>
+        <v>1.387180177066909</v>
       </c>
       <c r="L14">
-        <v>0.3814976346805281</v>
+        <v>0.3970639502062028</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.610192312183834</v>
+        <v>0.6976423320203651</v>
       </c>
       <c r="O14">
-        <v>2.98827077389106</v>
+        <v>1.387863382958386</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7394956238690327</v>
+        <v>1.650694138922574</v>
       </c>
       <c r="C15">
-        <v>0.1460262477978986</v>
+        <v>0.1085941005964841</v>
       </c>
       <c r="D15">
-        <v>0.2242423945533858</v>
+        <v>0.2037048325802857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.299481118703795</v>
+        <v>0.6698453956978341</v>
       </c>
       <c r="G15">
-        <v>0.6944291854911313</v>
+        <v>0.3744724186501713</v>
       </c>
       <c r="H15">
-        <v>0.8010264906976374</v>
+        <v>0.3067303055747459</v>
       </c>
       <c r="I15">
-        <v>0.8070075759075195</v>
+        <v>0.322980473814237</v>
       </c>
       <c r="J15">
-        <v>0.1949785039691463</v>
+        <v>0.07966090347398591</v>
       </c>
       <c r="K15">
-        <v>0.4613701353601982</v>
+        <v>1.372208435463449</v>
       </c>
       <c r="L15">
-        <v>0.3806412572591995</v>
+        <v>0.3933485708045339</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.611695353146846</v>
+        <v>0.7010099262974521</v>
       </c>
       <c r="O15">
-        <v>2.989610826482419</v>
+        <v>1.384810586088633</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7093619421426922</v>
+        <v>1.546745071787115</v>
       </c>
       <c r="C16">
-        <v>0.1454940273756833</v>
+        <v>0.1068400716622833</v>
       </c>
       <c r="D16">
-        <v>0.2219474369600078</v>
+        <v>0.1933479285215185</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.300840022277498</v>
+        <v>0.6555342010649525</v>
       </c>
       <c r="G16">
-        <v>0.6957175919569494</v>
+        <v>0.3669355651142538</v>
       </c>
       <c r="H16">
-        <v>0.8036481810606659</v>
+        <v>0.3065310869714679</v>
       </c>
       <c r="I16">
-        <v>0.8103430179133468</v>
+        <v>0.3235053771169198</v>
       </c>
       <c r="J16">
-        <v>0.1954429564640527</v>
+        <v>0.07902142534965861</v>
       </c>
       <c r="K16">
-        <v>0.4353368116961747</v>
+        <v>1.286469953735121</v>
       </c>
       <c r="L16">
-        <v>0.3757733969856929</v>
+        <v>0.3721465607255823</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.620451970397976</v>
+        <v>0.7206243445667937</v>
       </c>
       <c r="O16">
-        <v>2.997691764846181</v>
+        <v>1.368212770015134</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6909017527742094</v>
+        <v>1.483077499218751</v>
       </c>
       <c r="C17">
-        <v>0.1451687999724314</v>
+        <v>0.1057682949078966</v>
       </c>
       <c r="D17">
-        <v>0.2205596358849249</v>
+        <v>0.1870309325825588</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.301824938627981</v>
+        <v>0.6470733900654579</v>
       </c>
       <c r="G17">
-        <v>0.6966049948358091</v>
+        <v>0.3625451444632759</v>
       </c>
       <c r="H17">
-        <v>0.8053305686444503</v>
+        <v>0.3065459588213315</v>
       </c>
       <c r="I17">
-        <v>0.8124792055315844</v>
+        <v>0.3240114668425207</v>
       </c>
       <c r="J17">
-        <v>0.195745427983649</v>
+        <v>0.0786596132782833</v>
       </c>
       <c r="K17">
-        <v>0.4193589547221848</v>
+        <v>1.233918111365682</v>
       </c>
       <c r="L17">
-        <v>0.3728226946557669</v>
+        <v>0.3592165695775975</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.625951766293021</v>
+        <v>0.732934363768539</v>
       </c>
       <c r="O17">
-        <v>3.003007766462929</v>
+        <v>1.358809848803645</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6802937252390961</v>
+        <v>1.446491839008047</v>
       </c>
       <c r="C18">
-        <v>0.144982213422864</v>
+        <v>0.1051533522534669</v>
       </c>
       <c r="D18">
-        <v>0.2197688246391181</v>
+        <v>0.1834105606127423</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.302447089630235</v>
+        <v>0.6423207464035841</v>
       </c>
       <c r="G18">
-        <v>0.6971510698779682</v>
+        <v>0.3601029428988625</v>
       </c>
       <c r="H18">
-        <v>0.80632547956953</v>
+        <v>0.3066037359787543</v>
       </c>
       <c r="I18">
-        <v>0.8137409785010874</v>
+        <v>0.3243685410362751</v>
       </c>
       <c r="J18">
-        <v>0.1959258581036245</v>
+        <v>0.07846247356524572</v>
       </c>
       <c r="K18">
-        <v>0.4101664689682138</v>
+        <v>1.203706138438349</v>
       </c>
       <c r="L18">
-        <v>0.3711386623849364</v>
+        <v>0.3518066423401081</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.629162115766022</v>
+        <v>0.7401147492020286</v>
       </c>
       <c r="O18">
-        <v>3.006197263441337</v>
+        <v>1.353679894689819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6767037371143942</v>
+        <v>1.434110150701628</v>
       </c>
       <c r="C19">
-        <v>0.144919120874043</v>
+        <v>0.1049453986937507</v>
       </c>
       <c r="D19">
-        <v>0.2195023464763608</v>
+        <v>0.1821869539705432</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.302667303519186</v>
+        <v>0.64073081894567</v>
       </c>
       <c r="G19">
-        <v>0.6973420882680514</v>
+        <v>0.3592900737433737</v>
       </c>
       <c r="H19">
-        <v>0.8066670214458043</v>
+        <v>0.3066316450957771</v>
       </c>
       <c r="I19">
-        <v>0.8141738789301378</v>
+        <v>0.324500618428047</v>
       </c>
       <c r="J19">
-        <v>0.1959880583866358</v>
+        <v>0.07839758646913708</v>
       </c>
       <c r="K19">
-        <v>0.4070536523214514</v>
+        <v>1.193479142128353</v>
       </c>
       <c r="L19">
-        <v>0.3705707394920381</v>
+        <v>0.3493023097820469</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.630257160458001</v>
+        <v>0.742562901939376</v>
       </c>
       <c r="O19">
-        <v>3.007299829888794</v>
+        <v>1.351990041827932</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6928658651688409</v>
+        <v>1.48985140664945</v>
       </c>
       <c r="C20">
-        <v>0.1452033719368515</v>
+        <v>0.1058822294400272</v>
       </c>
       <c r="D20">
-        <v>0.2207066030309903</v>
+        <v>0.1877020321309288</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.301714334078156</v>
+        <v>0.6479622073721458</v>
       </c>
       <c r="G20">
-        <v>0.6965068384821862</v>
+        <v>0.3630038578604839</v>
       </c>
       <c r="H20">
-        <v>0.8051486563621637</v>
+        <v>0.3065392556051094</v>
       </c>
       <c r="I20">
-        <v>0.8122483799984792</v>
+        <v>0.323950726582261</v>
       </c>
       <c r="J20">
-        <v>0.1957125613483726</v>
+        <v>0.07869698864226748</v>
       </c>
       <c r="K20">
-        <v>0.4210600829193254</v>
+        <v>1.239510794776351</v>
       </c>
       <c r="L20">
-        <v>0.3731354440449905</v>
+        <v>0.3605901629958055</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.625361438291712</v>
+        <v>0.7316135509233739</v>
       </c>
       <c r="O20">
-        <v>3.002428222553277</v>
+        <v>1.35978181843322</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7472833062831796</v>
+        <v>1.677565874495599</v>
       </c>
       <c r="C21">
-        <v>0.1461640435867864</v>
+        <v>0.1090483180855344</v>
       </c>
       <c r="D21">
-        <v>0.2248410868108834</v>
+        <v>0.2063904924471416</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.299176994490807</v>
+        <v>0.6736415328482792</v>
       </c>
       <c r="G21">
-        <v>0.6941265231520219</v>
+        <v>0.3764925849183385</v>
       </c>
       <c r="H21">
-        <v>0.8003724976784525</v>
+        <v>0.3068250841710807</v>
       </c>
       <c r="I21">
-        <v>0.8061742399664809</v>
+        <v>0.3229032486092969</v>
       </c>
       <c r="J21">
-        <v>0.194864008509871</v>
+        <v>0.07983562828768953</v>
       </c>
       <c r="K21">
-        <v>0.4680890038213761</v>
+        <v>1.394360659400292</v>
       </c>
       <c r="L21">
-        <v>0.3819089908899258</v>
+        <v>0.3988471980590731</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.609474097627704</v>
+        <v>0.6960331399881063</v>
       </c>
       <c r="O21">
-        <v>2.987635283873772</v>
+        <v>1.389343437306877</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7829293096032472</v>
+        <v>1.800622046283166</v>
       </c>
       <c r="C22">
-        <v>0.1467959643642729</v>
+        <v>0.1111321658584288</v>
       </c>
       <c r="D22">
-        <v>0.2276084882644795</v>
+        <v>0.2187302712509904</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.298012987977373</v>
+        <v>0.6915094392119272</v>
       </c>
       <c r="G22">
-        <v>0.6928881264698816</v>
+        <v>0.3861051500102093</v>
       </c>
       <c r="H22">
-        <v>0.7974930464461067</v>
+        <v>0.3074752564536709</v>
       </c>
       <c r="I22">
-        <v>0.8024987378224715</v>
+        <v>0.3228422661859582</v>
       </c>
       <c r="J22">
-        <v>0.1943667379870533</v>
+        <v>0.08068260710703257</v>
       </c>
       <c r="K22">
-        <v>0.4987986416483636</v>
+        <v>1.495745528194817</v>
       </c>
       <c r="L22">
-        <v>0.387758668559627</v>
+        <v>0.4241162077963168</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.599509204345175</v>
+        <v>0.6737104756174226</v>
       </c>
       <c r="O22">
-        <v>2.979139725856783</v>
+        <v>1.411316468876436</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7638972439718543</v>
+        <v>1.734906966015018</v>
       </c>
       <c r="C23">
-        <v>0.1464583324610658</v>
+        <v>0.1100185808182843</v>
       </c>
       <c r="D23">
-        <v>0.226125537692937</v>
+        <v>0.2121322864812072</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.298589075127566</v>
+        <v>0.6818701388635944</v>
       </c>
       <c r="G23">
-        <v>0.6935200663319279</v>
+        <v>0.3808989571881369</v>
       </c>
       <c r="H23">
-        <v>0.799007744608204</v>
+        <v>0.3070845955155477</v>
       </c>
       <c r="I23">
-        <v>0.8044335134989176</v>
+        <v>0.3228159530954073</v>
       </c>
       <c r="J23">
-        <v>0.194626905975877</v>
+        <v>0.08022089301007185</v>
       </c>
       <c r="K23">
-        <v>0.4824109809256925</v>
+        <v>1.441615243864987</v>
       </c>
       <c r="L23">
-        <v>0.384626065624488</v>
+        <v>0.4106040934454427</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.604789382631377</v>
+        <v>0.685537258695657</v>
       </c>
       <c r="O23">
-        <v>2.983566771734559</v>
+        <v>1.399337604059212</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6919778743715028</v>
+        <v>1.486788868792217</v>
       </c>
       <c r="C24">
-        <v>0.1451877407322186</v>
+        <v>0.105830715800046</v>
       </c>
       <c r="D24">
-        <v>0.2206401372036737</v>
+        <v>0.1873985927717143</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.301764164228757</v>
+        <v>0.6475600262719396</v>
       </c>
       <c r="G24">
-        <v>0.696551103155798</v>
+        <v>0.3627962190266061</v>
       </c>
       <c r="H24">
-        <v>0.8052308126653926</v>
+        <v>0.3065421330698825</v>
       </c>
       <c r="I24">
-        <v>0.8123526314002518</v>
+        <v>0.3239779817079338</v>
       </c>
       <c r="J24">
-        <v>0.1957273999961195</v>
+        <v>0.07868005743612017</v>
       </c>
       <c r="K24">
-        <v>0.4202910233763077</v>
+        <v>1.236982340744078</v>
       </c>
       <c r="L24">
-        <v>0.3729940115141659</v>
+        <v>0.3599690878706667</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.625628174680607</v>
+        <v>0.7322103694368742</v>
       </c>
       <c r="O24">
-        <v>3.002689819251984</v>
+        <v>1.359341533457126</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6147786035882064</v>
+        <v>1.220426593111398</v>
       </c>
       <c r="C25">
-        <v>0.143835482863615</v>
+        <v>0.1013707917069269</v>
       </c>
       <c r="D25">
-        <v>0.2150071627604859</v>
+        <v>0.1612108606770732</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.307317480133392</v>
+        <v>0.6148639270025029</v>
       </c>
       <c r="G25">
-        <v>0.7011842528763168</v>
+        <v>0.3464147963262221</v>
       </c>
       <c r="H25">
-        <v>0.8129854234720071</v>
+        <v>0.3078258678862582</v>
       </c>
       <c r="I25">
-        <v>0.8221601925894255</v>
+        <v>0.3277352894243215</v>
       </c>
       <c r="J25">
-        <v>0.1971614169561704</v>
+        <v>0.07743450921859818</v>
       </c>
       <c r="K25">
-        <v>0.3531936582747051</v>
+        <v>1.016777975149751</v>
       </c>
       <c r="L25">
-        <v>0.3609497940008026</v>
+        <v>0.3063726093364494</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.649903773936622</v>
+        <v>0.7863563858664193</v>
       </c>
       <c r="O25">
-        <v>3.028359974210943</v>
+        <v>1.326750633178577</v>
       </c>
     </row>
   </sheetData>
